--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Inhbb-Acvr2b.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Inhbb-Acvr2b.xlsx
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.514214333333333</v>
+        <v>6.044933333333333</v>
       </c>
       <c r="H2">
-        <v>4.542643</v>
+        <v>18.1348</v>
       </c>
       <c r="I2">
-        <v>0.3482435661103787</v>
+        <v>0.9708761253868625</v>
       </c>
       <c r="J2">
-        <v>0.3482435661103787</v>
+        <v>0.9708761253868624</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.455462333333333</v>
+        <v>0.978762</v>
       </c>
       <c r="N2">
-        <v>4.366387</v>
+        <v>2.936286</v>
       </c>
       <c r="O2">
-        <v>0.2990078421312781</v>
+        <v>0.3819465121442868</v>
       </c>
       <c r="P2">
-        <v>0.2990078421312781</v>
+        <v>0.3819465121442868</v>
       </c>
       <c r="Q2">
-        <v>2.203881926760111</v>
+        <v>5.9165510392</v>
       </c>
       <c r="R2">
-        <v>19.834937340841</v>
+        <v>53.24895935279999</v>
       </c>
       <c r="S2">
-        <v>0.1041275572387654</v>
+        <v>0.3708227498156714</v>
       </c>
       <c r="T2">
-        <v>0.1041275572387654</v>
+        <v>0.3708227498156714</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.514214333333333</v>
+        <v>6.044933333333333</v>
       </c>
       <c r="H3">
-        <v>4.542643</v>
+        <v>18.1348</v>
       </c>
       <c r="I3">
-        <v>0.3482435661103787</v>
+        <v>0.9708761253868625</v>
       </c>
       <c r="J3">
-        <v>0.3482435661103787</v>
+        <v>0.9708761253868624</v>
       </c>
       <c r="K3">
         <v>2</v>
@@ -629,22 +629,22 @@
         <v>0.312473</v>
       </c>
       <c r="O3">
-        <v>0.02139798360848153</v>
+        <v>0.0406458950147437</v>
       </c>
       <c r="P3">
-        <v>0.02139798360848154</v>
+        <v>0.04064589501474371</v>
       </c>
       <c r="Q3">
-        <v>0.1577170317932222</v>
+        <v>0.6296261511555554</v>
       </c>
       <c r="R3">
-        <v>1.419453286139</v>
+        <v>5.6666353604</v>
       </c>
       <c r="S3">
-        <v>0.007451710119389038</v>
+        <v>0.03946212906479556</v>
       </c>
       <c r="T3">
-        <v>0.00745171011938904</v>
+        <v>0.03946212906479556</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,46 +667,46 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.514214333333333</v>
+        <v>6.044933333333333</v>
       </c>
       <c r="H4">
-        <v>4.542643</v>
+        <v>18.1348</v>
       </c>
       <c r="I4">
-        <v>0.3482435661103787</v>
+        <v>0.9708761253868625</v>
       </c>
       <c r="J4">
-        <v>0.3482435661103787</v>
+        <v>0.9708761253868624</v>
       </c>
       <c r="K4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>0.7055843333333334</v>
+        <v>0.3139526666666667</v>
       </c>
       <c r="N4">
-        <v>2.116753</v>
+        <v>0.9418580000000001</v>
       </c>
       <c r="O4">
-        <v>0.1449541112262631</v>
+        <v>0.1225151017425393</v>
       </c>
       <c r="P4">
-        <v>0.1449541112262631</v>
+        <v>0.1225151017425393</v>
       </c>
       <c r="Q4">
-        <v>1.068405910908778</v>
+        <v>1.897822939822222</v>
       </c>
       <c r="R4">
-        <v>9.615653198179</v>
+        <v>17.0804064584</v>
       </c>
       <c r="S4">
-        <v>0.05047933661579434</v>
+        <v>0.1189469872811738</v>
       </c>
       <c r="T4">
-        <v>0.05047933661579435</v>
+        <v>0.1189469872811738</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1.514214333333333</v>
+        <v>6.044933333333333</v>
       </c>
       <c r="H5">
-        <v>4.542643</v>
+        <v>18.1348</v>
       </c>
       <c r="I5">
-        <v>0.3482435661103787</v>
+        <v>0.9708761253868625</v>
       </c>
       <c r="J5">
-        <v>0.3482435661103787</v>
+        <v>0.9708761253868624</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.409595</v>
+        <v>0.5829876666666666</v>
       </c>
       <c r="N5">
-        <v>4.228785</v>
+        <v>1.748963</v>
       </c>
       <c r="O5">
-        <v>0.2895849309021662</v>
+        <v>0.2275017888991087</v>
       </c>
       <c r="P5">
-        <v>0.2895849309021662</v>
+        <v>0.2275017888991087</v>
       </c>
       <c r="Q5">
-        <v>2.134428953195</v>
+        <v>3.524121579155555</v>
       </c>
       <c r="R5">
-        <v>19.209860578755</v>
+        <v>31.7170942124</v>
       </c>
       <c r="S5">
-        <v>0.100846089029198</v>
+        <v>0.2208760553249466</v>
       </c>
       <c r="T5">
-        <v>0.100846089029198</v>
+        <v>0.2208760553249466</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>1.514214333333333</v>
+        <v>6.044933333333333</v>
       </c>
       <c r="H6">
-        <v>4.542643</v>
+        <v>18.1348</v>
       </c>
       <c r="I6">
-        <v>0.3482435661103787</v>
+        <v>0.9708761253868625</v>
       </c>
       <c r="J6">
-        <v>0.3482435661103787</v>
+        <v>0.9708761253868624</v>
       </c>
       <c r="K6">
         <v>2</v>
@@ -809,28 +809,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>0.245191</v>
+        <v>0.3019996666666667</v>
       </c>
       <c r="N6">
-        <v>0.735573</v>
+        <v>0.905999</v>
       </c>
       <c r="O6">
-        <v>0.05037164490001245</v>
+        <v>0.117850631054404</v>
       </c>
       <c r="P6">
-        <v>0.05037164490001245</v>
+        <v>0.117850631054404</v>
       </c>
       <c r="Q6">
-        <v>0.3712717266043334</v>
+        <v>1.825567851688889</v>
       </c>
       <c r="R6">
-        <v>3.341445539439</v>
+        <v>16.4301106652</v>
       </c>
       <c r="S6">
-        <v>0.017541601250826</v>
+        <v>0.1144183640524964</v>
       </c>
       <c r="T6">
-        <v>0.017541601250826</v>
+        <v>0.1144183640524964</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,16 +853,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>1.514214333333333</v>
+        <v>6.044933333333333</v>
       </c>
       <c r="H7">
-        <v>4.542643</v>
+        <v>18.1348</v>
       </c>
       <c r="I7">
-        <v>0.3482435661103787</v>
+        <v>0.9708761253868625</v>
       </c>
       <c r="J7">
-        <v>0.3482435661103787</v>
+        <v>0.9708761253868624</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.9476490000000001</v>
+        <v>0.2807033333333333</v>
       </c>
       <c r="N7">
-        <v>2.842947</v>
+        <v>0.8421099999999999</v>
       </c>
       <c r="O7">
-        <v>0.1946834872317985</v>
+        <v>0.1095400711449175</v>
       </c>
       <c r="P7">
-        <v>0.1946834872317985</v>
+        <v>0.1095400711449176</v>
       </c>
       <c r="Q7">
-        <v>1.434943698769</v>
+        <v>1.696832936444444</v>
       </c>
       <c r="R7">
-        <v>12.914493288921</v>
+        <v>15.271496428</v>
       </c>
       <c r="S7">
-        <v>0.06779727185640587</v>
+        <v>0.1063498398477788</v>
       </c>
       <c r="T7">
-        <v>0.06779727185640587</v>
+        <v>0.1063498398477788</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -921,10 +921,10 @@
         <v>0.340208</v>
       </c>
       <c r="I8">
-        <v>0.02608068631835689</v>
+        <v>0.01821359071319307</v>
       </c>
       <c r="J8">
-        <v>0.02608068631835689</v>
+        <v>0.01821359071319307</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>1.455462333333333</v>
+        <v>0.978762</v>
       </c>
       <c r="N8">
-        <v>4.366387</v>
+        <v>2.936286</v>
       </c>
       <c r="O8">
-        <v>0.2990078421312781</v>
+        <v>0.3819465121442868</v>
       </c>
       <c r="P8">
-        <v>0.2990078421312781</v>
+        <v>0.3819465121442868</v>
       </c>
       <c r="Q8">
-        <v>0.1650533098328889</v>
+        <v>0.110994220832</v>
       </c>
       <c r="R8">
-        <v>1.485479788496</v>
+        <v>0.9989479874880001</v>
       </c>
       <c r="S8">
-        <v>0.007798329737354641</v>
+        <v>0.006956617446527667</v>
       </c>
       <c r="T8">
-        <v>0.007798329737354642</v>
+        <v>0.006956617446527667</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -983,10 +983,10 @@
         <v>0.340208</v>
       </c>
       <c r="I9">
-        <v>0.02608068631835689</v>
+        <v>0.01821359071319307</v>
       </c>
       <c r="J9">
-        <v>0.02608068631835689</v>
+        <v>0.01821359071319307</v>
       </c>
       <c r="K9">
         <v>2</v>
@@ -1001,10 +1001,10 @@
         <v>0.312473</v>
       </c>
       <c r="O9">
-        <v>0.02139798360848153</v>
+        <v>0.0406458950147437</v>
       </c>
       <c r="P9">
-        <v>0.02139798360848154</v>
+        <v>0.04064589501474371</v>
       </c>
       <c r="Q9">
         <v>0.01181175715377778</v>
@@ -1013,10 +1013,10 @@
         <v>0.106305814384</v>
       </c>
       <c r="S9">
-        <v>0.0005580740983381493</v>
+        <v>0.0007403076959699564</v>
       </c>
       <c r="T9">
-        <v>0.0005580740983381495</v>
+        <v>0.0007403076959699566</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1045,40 +1045,40 @@
         <v>0.340208</v>
       </c>
       <c r="I10">
-        <v>0.02608068631835689</v>
+        <v>0.01821359071319307</v>
       </c>
       <c r="J10">
-        <v>0.02608068631835689</v>
+        <v>0.01821359071319307</v>
       </c>
       <c r="K10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L10">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M10">
-        <v>0.7055843333333334</v>
+        <v>0.3139526666666667</v>
       </c>
       <c r="N10">
-        <v>2.116753</v>
+        <v>0.9418580000000001</v>
       </c>
       <c r="O10">
-        <v>0.1449541112262631</v>
+        <v>0.1225151017425393</v>
       </c>
       <c r="P10">
-        <v>0.1449541112262631</v>
+        <v>0.1225151017425393</v>
       </c>
       <c r="Q10">
-        <v>0.08001514495822222</v>
+        <v>0.03560306960711112</v>
       </c>
       <c r="R10">
-        <v>0.720136304624</v>
+        <v>0.320427626464</v>
       </c>
       <c r="S10">
-        <v>0.003780502705448384</v>
+        <v>0.002231439919323818</v>
       </c>
       <c r="T10">
-        <v>0.003780502705448384</v>
+        <v>0.002231439919323818</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1107,10 +1107,10 @@
         <v>0.340208</v>
       </c>
       <c r="I11">
-        <v>0.02608068631835689</v>
+        <v>0.01821359071319307</v>
       </c>
       <c r="J11">
-        <v>0.02608068631835689</v>
+        <v>0.01821359071319307</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>1.409595</v>
+        <v>0.5829876666666666</v>
       </c>
       <c r="N11">
-        <v>4.228785</v>
+        <v>1.748963</v>
       </c>
       <c r="O11">
-        <v>0.2895849309021662</v>
+        <v>0.2275017888991087</v>
       </c>
       <c r="P11">
-        <v>0.2895849309021662</v>
+        <v>0.2275017888991087</v>
       </c>
       <c r="Q11">
-        <v>0.15985183192</v>
+        <v>0.06611235603377777</v>
       </c>
       <c r="R11">
-        <v>1.43866648728</v>
+        <v>0.595011204304</v>
       </c>
       <c r="S11">
-        <v>0.007552573745382453</v>
+        <v>0.004143624469527616</v>
       </c>
       <c r="T11">
-        <v>0.007552573745382453</v>
+        <v>0.004143624469527618</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1169,10 +1169,10 @@
         <v>0.340208</v>
       </c>
       <c r="I12">
-        <v>0.02608068631835689</v>
+        <v>0.01821359071319307</v>
       </c>
       <c r="J12">
-        <v>0.02608068631835689</v>
+        <v>0.01821359071319307</v>
       </c>
       <c r="K12">
         <v>2</v>
@@ -1181,28 +1181,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M12">
-        <v>0.245191</v>
+        <v>0.3019996666666667</v>
       </c>
       <c r="N12">
-        <v>0.735573</v>
+        <v>0.905999</v>
       </c>
       <c r="O12">
-        <v>0.05037164490001245</v>
+        <v>0.117850631054404</v>
       </c>
       <c r="P12">
-        <v>0.05037164490001245</v>
+        <v>0.117850631054404</v>
       </c>
       <c r="Q12">
-        <v>0.02780531324266667</v>
+        <v>0.03424756753244444</v>
       </c>
       <c r="R12">
-        <v>0.250247819184</v>
+        <v>0.308228107792</v>
       </c>
       <c r="S12">
-        <v>0.001313727069976886</v>
+        <v>0.002146483159316436</v>
       </c>
       <c r="T12">
-        <v>0.001313727069976886</v>
+        <v>0.002146483159316436</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1231,10 +1231,10 @@
         <v>0.340208</v>
       </c>
       <c r="I13">
-        <v>0.02608068631835689</v>
+        <v>0.01821359071319307</v>
       </c>
       <c r="J13">
-        <v>0.02608068631835689</v>
+        <v>0.01821359071319307</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>0.9476490000000001</v>
+        <v>0.2807033333333333</v>
       </c>
       <c r="N13">
-        <v>2.842947</v>
+        <v>0.8421099999999999</v>
       </c>
       <c r="O13">
-        <v>0.1946834872317985</v>
+        <v>0.1095400711449175</v>
       </c>
       <c r="P13">
-        <v>0.1946834872317985</v>
+        <v>0.1095400711449176</v>
       </c>
       <c r="Q13">
-        <v>0.107465923664</v>
+        <v>0.03183250654222222</v>
       </c>
       <c r="R13">
-        <v>0.9671933129760001</v>
+        <v>0.28649255888</v>
       </c>
       <c r="S13">
-        <v>0.005077478961856375</v>
+        <v>0.001995118022527578</v>
       </c>
       <c r="T13">
-        <v>0.005077478961856375</v>
+        <v>0.001995118022527579</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,22 +1281,22 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F14">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G14">
-        <v>2.720530333333333</v>
+        <v>0.06793033333333333</v>
       </c>
       <c r="H14">
-        <v>8.161591</v>
+        <v>0.203791</v>
       </c>
       <c r="I14">
-        <v>0.6256757475712644</v>
+        <v>0.01091028389994453</v>
       </c>
       <c r="J14">
-        <v>0.6256757475712644</v>
+        <v>0.01091028389994453</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>1.455462333333333</v>
+        <v>0.978762</v>
       </c>
       <c r="N14">
-        <v>4.366387</v>
+        <v>2.936286</v>
       </c>
       <c r="O14">
-        <v>0.2990078421312781</v>
+        <v>0.3819465121442868</v>
       </c>
       <c r="P14">
-        <v>0.2990078421312781</v>
+        <v>0.3819465121442868</v>
       </c>
       <c r="Q14">
-        <v>3.959629426857444</v>
+        <v>0.06648762891399999</v>
       </c>
       <c r="R14">
-        <v>35.63666484171699</v>
+        <v>0.598388660226</v>
       </c>
       <c r="S14">
-        <v>0.187081955155158</v>
+        <v>0.004167144882087782</v>
       </c>
       <c r="T14">
-        <v>0.187081955155158</v>
+        <v>0.004167144882087782</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,22 +1343,22 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F15">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G15">
-        <v>2.720530333333333</v>
+        <v>0.06793033333333333</v>
       </c>
       <c r="H15">
-        <v>8.161591</v>
+        <v>0.203791</v>
       </c>
       <c r="I15">
-        <v>0.6256757475712644</v>
+        <v>0.01091028389994453</v>
       </c>
       <c r="J15">
-        <v>0.6256757475712644</v>
+        <v>0.01091028389994453</v>
       </c>
       <c r="K15">
         <v>2</v>
@@ -1373,22 +1373,22 @@
         <v>0.312473</v>
       </c>
       <c r="O15">
-        <v>0.02139798360848153</v>
+        <v>0.0406458950147437</v>
       </c>
       <c r="P15">
-        <v>0.02139798360848154</v>
+        <v>0.04064589501474371</v>
       </c>
       <c r="Q15">
-        <v>0.2833640916158888</v>
+        <v>0.007075465015888888</v>
       </c>
       <c r="R15">
-        <v>2.550276824543</v>
+        <v>0.063679185143</v>
       </c>
       <c r="S15">
-        <v>0.01338819939075435</v>
+        <v>0.0004434582539781939</v>
       </c>
       <c r="T15">
-        <v>0.01338819939075435</v>
+        <v>0.000443458253978194</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,52 +1405,52 @@
         <v>25</v>
       </c>
       <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G16">
+        <v>0.06793033333333333</v>
+      </c>
+      <c r="H16">
+        <v>0.203791</v>
+      </c>
+      <c r="I16">
+        <v>0.01091028389994453</v>
+      </c>
+      <c r="J16">
+        <v>0.01091028389994453</v>
+      </c>
+      <c r="K16">
         <v>2</v>
       </c>
-      <c r="F16">
+      <c r="L16">
         <v>0.6666666666666666</v>
       </c>
-      <c r="G16">
-        <v>2.720530333333333</v>
-      </c>
-      <c r="H16">
-        <v>8.161591</v>
-      </c>
-      <c r="I16">
-        <v>0.6256757475712644</v>
-      </c>
-      <c r="J16">
-        <v>0.6256757475712644</v>
-      </c>
-      <c r="K16">
-        <v>3</v>
-      </c>
-      <c r="L16">
-        <v>1</v>
-      </c>
       <c r="M16">
-        <v>0.7055843333333334</v>
+        <v>0.3139526666666667</v>
       </c>
       <c r="N16">
-        <v>2.116753</v>
+        <v>0.9418580000000001</v>
       </c>
       <c r="O16">
-        <v>0.1449541112262631</v>
+        <v>0.1225151017425393</v>
       </c>
       <c r="P16">
-        <v>0.1449541112262631</v>
+        <v>0.1225151017425393</v>
       </c>
       <c r="Q16">
-        <v>1.919563581558111</v>
+        <v>0.02132690929755556</v>
       </c>
       <c r="R16">
-        <v>17.276072234023</v>
+        <v>0.191942183678</v>
       </c>
       <c r="S16">
-        <v>0.09069427190502038</v>
+        <v>0.001336674542041693</v>
       </c>
       <c r="T16">
-        <v>0.09069427190502041</v>
+        <v>0.001336674542041693</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,22 +1467,22 @@
         <v>22</v>
       </c>
       <c r="E17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F17">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G17">
-        <v>2.720530333333333</v>
+        <v>0.06793033333333333</v>
       </c>
       <c r="H17">
-        <v>8.161591</v>
+        <v>0.203791</v>
       </c>
       <c r="I17">
-        <v>0.6256757475712644</v>
+        <v>0.01091028389994453</v>
       </c>
       <c r="J17">
-        <v>0.6256757475712644</v>
+        <v>0.01091028389994453</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>1.409595</v>
+        <v>0.5829876666666666</v>
       </c>
       <c r="N17">
-        <v>4.228785</v>
+        <v>1.748963</v>
       </c>
       <c r="O17">
-        <v>0.2895849309021662</v>
+        <v>0.2275017888991087</v>
       </c>
       <c r="P17">
-        <v>0.2895849309021662</v>
+        <v>0.2275017888991087</v>
       </c>
       <c r="Q17">
-        <v>3.834845955215</v>
+        <v>0.03960254652588888</v>
       </c>
       <c r="R17">
-        <v>34.513613596935</v>
+        <v>0.356422918733</v>
       </c>
       <c r="S17">
-        <v>0.1811862681275858</v>
+        <v>0.002482109104634525</v>
       </c>
       <c r="T17">
-        <v>0.1811862681275858</v>
+        <v>0.002482109104634526</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1529,22 +1529,22 @@
         <v>26</v>
       </c>
       <c r="E18">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F18">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G18">
-        <v>2.720530333333333</v>
+        <v>0.06793033333333333</v>
       </c>
       <c r="H18">
-        <v>8.161591</v>
+        <v>0.203791</v>
       </c>
       <c r="I18">
-        <v>0.6256757475712644</v>
+        <v>0.01091028389994453</v>
       </c>
       <c r="J18">
-        <v>0.6256757475712644</v>
+        <v>0.01091028389994453</v>
       </c>
       <c r="K18">
         <v>2</v>
@@ -1553,28 +1553,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M18">
-        <v>0.245191</v>
+        <v>0.3019996666666667</v>
       </c>
       <c r="N18">
-        <v>0.735573</v>
+        <v>0.905999</v>
       </c>
       <c r="O18">
-        <v>0.05037164490001245</v>
+        <v>0.117850631054404</v>
       </c>
       <c r="P18">
-        <v>0.05037164490001245</v>
+        <v>0.117850631054404</v>
       </c>
       <c r="Q18">
-        <v>0.6670495529603333</v>
+        <v>0.02051493802322222</v>
       </c>
       <c r="R18">
-        <v>6.003445976643</v>
+        <v>0.184634442209</v>
       </c>
       <c r="S18">
-        <v>0.03151631657920956</v>
+        <v>0.001285783842591167</v>
       </c>
       <c r="T18">
-        <v>0.03151631657920956</v>
+        <v>0.001285783842591167</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1591,22 +1591,22 @@
         <v>27</v>
       </c>
       <c r="E19">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F19">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G19">
-        <v>2.720530333333333</v>
+        <v>0.06793033333333333</v>
       </c>
       <c r="H19">
-        <v>8.161591</v>
+        <v>0.203791</v>
       </c>
       <c r="I19">
-        <v>0.6256757475712644</v>
+        <v>0.01091028389994453</v>
       </c>
       <c r="J19">
-        <v>0.6256757475712644</v>
+        <v>0.01091028389994453</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>0.9476490000000001</v>
+        <v>0.2807033333333333</v>
       </c>
       <c r="N19">
-        <v>2.842947</v>
+        <v>0.8421099999999999</v>
       </c>
       <c r="O19">
-        <v>0.1946834872317985</v>
+        <v>0.1095400711449175</v>
       </c>
       <c r="P19">
-        <v>0.1946834872317985</v>
+        <v>0.1095400711449176</v>
       </c>
       <c r="Q19">
-        <v>2.578107849853</v>
+        <v>0.01906827100111111</v>
       </c>
       <c r="R19">
-        <v>23.202970648677</v>
+        <v>0.17161443901</v>
       </c>
       <c r="S19">
-        <v>0.1218087364135362</v>
+        <v>0.001195113274611172</v>
       </c>
       <c r="T19">
-        <v>0.1218087364135362</v>
+        <v>0.001195113274611173</v>
       </c>
     </row>
   </sheetData>
